--- a/SMART-Review/data/df_articles_results.xlsx
+++ b/SMART-Review/data/df_articles_results.xlsx
@@ -486,17 +486,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>phi.4_inclusion</t>
+          <t>phi.3.mini.4k.instruct_inclusion</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>phi.4_reason</t>
+          <t>phi.3.mini.4k.instruct_reason</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>phi.4_study_design</t>
+          <t>phi.3.mini.4k.instruct_study_design</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The study does not include a control group or rigorous evaluation, and it is not clear if the outcomes measure employment or labor results.</t>
+          <t>The study does not include a control group and lacks a rigorous evaluation.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>The study does not directly address the outcomes related to employment or labor results as specified in the inclusion criteria.</t>
+          <t>The study does not directly address the outcomes related to employment or labor results. It focuses on the reach and types of employment services received by VHA patients with psychiatric diagnoses.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -578,15 +578,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Excluded</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Invalid response structure</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>The study does not focus on active employment policies but rather on the reach of employment services among Veterans with psychiatric diagnoses. It does not meet the intervention criteria specified in the inclusion criteria.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Cohort study</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -594,12 +598,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The study design lacks a rigorous evaluation and no control group. The study is a population-based analysis using clinical administrative data, which does not meet the inclusion criteria for a systematic review or meta-analysis with a control group.</t>
+          <t>The study design is a population-based analysis using clinical administrative data, which lacks a rigorous evaluation and control group.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Population-based analysis using clinical administrative data</t>
+          <t>Population-based analysis</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -639,12 +643,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The article does not present measures of employment or labor results.</t>
+          <t>The study does not present measures of employment or labor results.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Policy Review</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -654,25 +658,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>The study design lacks rigorous evaluation or control group and does not present measures of employment or labor results.</t>
+          <t>The study design does not meet the inclusion criteria as it lacks rigorous evaluation and control groups. It provides a summary of federal initiatives rather than presenting original research data with controlled outcomes.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Brief summary of federal initiatives without a controlled evaluation</t>
+          <t>Summary of federal initiatives</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Excluded</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Invalid response structure</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>The study focuses on federal policies and programs rather than interventions like job search services, adult training, or wage subsidies. It also does not specifically target people with mental health disorders but rather individuals with serious mental illnesses.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Review of federal policies and programs</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -680,12 +688,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>The study design is a brief summary of federal initiatives, which lacks a rigorous evaluation and does not include a control group.</t>
+          <t>Intervention: labor regulation policies, social security policies, or does not directly address employment.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Summary of federal initiatives</t>
+          <t>Lacks a rigorous evaluation or no control group</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -730,7 +738,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cross-sectional study with no control group</t>
+          <t>Cross-sectional study</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -740,12 +748,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>The study does not directly address the outcomes related to employment or labor results as specified in the inclusion criteria.</t>
+          <t>The study does not directly address the outcomes of interventions such as job search services, adult training, wage subsidies, or supported employment. It focuses on identifying differences in health and psychosocial needs among job-seekers with different mental disorders accessing disability employment services.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cross-sectional survey with self-report measures and one-way analysis of variance</t>
+          <t>Cross-sectional</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -755,7 +763,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Invalid response structure</t>
+          <t>Could not parse model's JSON output</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -766,7 +774,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>The study design is a quasi-experimental study with a control group, meeting the inclusion criteria for study design. The study is set in the EU country of Australia, within the specified timeframe of 2005-2025. The intervention is job placement services from a disability employment service provider, which is one of the included interventions. The population is people with mental disorders or documented mental health problems, and the outcomes include employment or labor outcomes such as employment rates, job duration, job quality, workplace integration, or job retention.</t>
+          <t>The study design is a quasi-experimental study with a control group, meeting the inclusion criteria for study design. The study is set in Australia, within the specified timeframe of 2005-2025, and focuses on people with mental disorders, meeting the inclusion criteria for population. The study also presents measures of employment outcomes, meeting the inclusion criteria for outcomes.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -811,7 +819,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The article is an RCT, focuses on supported employment, includes a control group, and reports employment rates as an outcome.</t>
+          <t>The study is an RCT with a control group, conducted within the specified timeframe (2005-2025), focuses on supported employment for people with mental health disorders, and includes employment outcomes.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -826,25 +834,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>The article meets all inclusion criteria including a randomized controlled trial (RCT) design, intervention focused on supported employment, population of individuals with serious mental illnesses, and outcomes related to employment services engagement.</t>
+          <t>Meets all inclusion criteria including study design (RCT), geographic scope (EU country), timeframe (2005-2025), intervention (supported employment/job search services), population (people with mental disorders), and outcomes (employment rates).</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Randomized Controlled Trial (RCT)</t>
+          <t>RCT</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Unclear</t>
+          <t>Included</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Invalid response structure</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>The study meets the inclusion criteria as it is a randomized trial (study design), focuses on adults with mental health disorders (population), and examines employment outcomes (outcomes). It is also within the specified timeframe and geographic scope.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Randomized Trial</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Included</t>
@@ -852,7 +864,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>The study meets the inclusion criteria as it is a randomized trial (study design) with a control group, focusing on employment outcomes for individuals with mental health disorders in the EU, US, Canada, or Australia, and published between 2005-2025.</t>
+          <t>The study design meets the inclusion criteria as it is a randomized trial (RCT) with a control group.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -893,7 +905,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The study is a systematic review that includes controlled trials and addresses supported employment for people with disabilities, including mental health disorders. It was conducted within the specified timeframe and geographic scope.</t>
+          <t>The study is a systematic review that includes controlled trials and addresses the intervention of supported employment for people with disabilities, which can include mental health disorders. It was conducted within the specified timeframe and geographic scope.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -908,43 +920,47 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>The study design includes experimental, causal-comparative, correlational, or descriptive methods which do not meet the inclusion criteria (RCTs, quasi-experimental studies with a control group, meta-analyses, systematic reviews of controlled trials). Additionally, it does not specify if the population has mental health disorders or documented mental health problems.</t>
+          <t>The study design includes experimental, causal-comparative, correlational, and descriptive methods which do not meet the inclusion criteria of meta-analyses, systematic reviews of controlled trials, RCTs, or quasi-experimental studies with a control group.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Experimental, causal-comparative, correlational, descriptive methods</t>
+          <t>Experimental, causal-comparative, correlational, descriptive</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>The study is a systematic review that meets the inclusion criteria regarding study design, intervention, population, and outcomes.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Systematic review</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Excluded</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>The study design is a systematic review, which does not meet the inclusion criteria of a meta-analysis, systematic reviews of controlled trials, RCTs (including cluster RCTs), or quasi-experimental studies with a control group.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Systematic Review</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>Unclear</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Invalid response structure</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>The study design is a systematic review, which is not explicitly mentioned as a type of study design in the inclusion criteria. However, the inclusion criteria do mention that the study design should be a meta-analysis, systematic reviews of controlled trials, RCTs, or quasi-experimental studies with a control group.</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Systematic Review</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="R6" t="n">
